--- a/biology/Botanique/Platanthère_d'Algérie/Platanthère_d'Algérie.xlsx
+++ b/biology/Botanique/Platanthère_d'Algérie/Platanthère_d'Algérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanthera algeriensis
 La Platanthère d'Algérie (Platanthera algeriensis) est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée terrestre européenne et nord-africaine, appartenant au genre Platanthera Richard, 1817 et au groupe Platanthera chlorantha.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Platanthera chlorantha subsp. algeriensis (Battandier &amp; Trabut) Emberger, 1935
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'Algérie, où le type a été décrit.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante verdâtre d'aspect robuste (feuilles basales, tige…), jusqu'à 80 cm.
 Feuilles : 3 à 4, dont 2 basales oblongues à lancéolées.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mai à juillet.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Terrains acides humides à détrempés (pâtures, bords de fossés, tourbières…), de 0 à 2.000 m d'altitude.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>France métropolitaine : Pyrénées-Orientales, Alpes-Maritimes ; hors métropole : Corse.
 Hors France : Afrique du Nord (Atlas), Italie (Abruzzes, Sardaigne), Espagne du sud.</t>
@@ -683,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Platanth%C3%A8re_d%27Alg%C3%A9rie</t>
+          <t>Platanthère_d'Algérie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -701,7 +725,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune en France métropolitaine, mais souhaitable en raison de sa rareté sur ce territoire.
 Statut de conservation UICN : Préoccupation mineure (LC).
